--- a/Code/Results/Cases/Case_6_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_60/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>24.30918318928094</v>
       </c>
       <c r="C2">
-        <v>12.97044497652286</v>
+        <v>12.97044497652309</v>
       </c>
       <c r="D2">
-        <v>6.087878299643102</v>
+        <v>6.087878299643057</v>
       </c>
       <c r="E2">
-        <v>5.422919887234075</v>
+        <v>5.422919887234274</v>
       </c>
       <c r="F2">
-        <v>67.1372530447875</v>
+        <v>67.13725304478741</v>
       </c>
       <c r="G2">
-        <v>2.147873270795728</v>
+        <v>2.14787327079559</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.783657445151073</v>
+        <v>6.783657445151168</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.522040228280088</v>
+        <v>6.522040228280121</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.99397095581946</v>
+        <v>22.99397095581951</v>
       </c>
       <c r="C3">
-        <v>11.98356438902331</v>
+        <v>11.98356438902324</v>
       </c>
       <c r="D3">
-        <v>5.770752990773083</v>
+        <v>5.770752990773027</v>
       </c>
       <c r="E3">
-        <v>5.443290701933271</v>
+        <v>5.443290701933337</v>
       </c>
       <c r="F3">
-        <v>64.14179325033811</v>
+        <v>64.14179325033824</v>
       </c>
       <c r="G3">
-        <v>2.163412923765089</v>
+        <v>2.163412923765352</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.763404668696069</v>
+        <v>6.763404668696091</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.484653333236516</v>
+        <v>6.484653333236554</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.181862262429</v>
+        <v>22.18186226242901</v>
       </c>
       <c r="C4">
-        <v>11.35294234828461</v>
+        <v>11.35294234828447</v>
       </c>
       <c r="D4">
-        <v>5.572511061851515</v>
+        <v>5.572511061851518</v>
       </c>
       <c r="E4">
-        <v>5.456679518421274</v>
+        <v>5.456679518421277</v>
       </c>
       <c r="F4">
-        <v>62.29116488170497</v>
+        <v>62.29116488170523</v>
       </c>
       <c r="G4">
-        <v>2.173097194674213</v>
+        <v>2.173097194674081</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.467836253228872</v>
+        <v>6.467836253228923</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.8500323825907</v>
+        <v>21.85003238259061</v>
       </c>
       <c r="C5">
-        <v>11.08955401532723</v>
+        <v>11.08955401532725</v>
       </c>
       <c r="D5">
-        <v>5.490837306277842</v>
+        <v>5.490837306277766</v>
       </c>
       <c r="E5">
-        <v>5.46235278043057</v>
+        <v>5.462352780430703</v>
       </c>
       <c r="F5">
-        <v>61.53436629528106</v>
+        <v>61.53436629528113</v>
       </c>
       <c r="G5">
-        <v>2.177085480703911</v>
+        <v>2.177085480703509</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.748518827451852</v>
+        <v>6.748518827451838</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.462464362981099</v>
+        <v>6.462464362981144</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.7948881301625</v>
+        <v>21.79488813016259</v>
       </c>
       <c r="C6">
-        <v>11.0454264781713</v>
+        <v>11.04542647817122</v>
       </c>
       <c r="D6">
-        <v>5.477222055584908</v>
+        <v>5.477222055584872</v>
       </c>
       <c r="E6">
-        <v>5.463307828914918</v>
+        <v>5.46330782891492</v>
       </c>
       <c r="F6">
-        <v>61.40854957637247</v>
+        <v>61.40854957637214</v>
       </c>
       <c r="G6">
-        <v>2.177750423326537</v>
+        <v>2.177750423326663</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.747869429889182</v>
+        <v>6.747869429889129</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.461660056413058</v>
+        <v>6.461660056413134</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.17739027132063</v>
+        <v>22.17739027132056</v>
       </c>
       <c r="C7">
-        <v>11.3494163765206</v>
+        <v>11.34941637652038</v>
       </c>
       <c r="D7">
-        <v>5.571413168560689</v>
+        <v>5.571413168560734</v>
       </c>
       <c r="E7">
-        <v>5.456755155667179</v>
+        <v>5.456755155667048</v>
       </c>
       <c r="F7">
-        <v>62.28096877165635</v>
+        <v>62.28096877165682</v>
       </c>
       <c r="G7">
-        <v>2.173150805167397</v>
+        <v>2.1731508051674</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.752506005695863</v>
+        <v>6.752506005695823</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.467757888992148</v>
+        <v>6.467757888992129</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>23.85676716526177</v>
       </c>
       <c r="C8">
-        <v>12.63515900905067</v>
+        <v>12.63515900905066</v>
       </c>
       <c r="D8">
-        <v>5.979258346596397</v>
+        <v>5.979258346596489</v>
       </c>
       <c r="E8">
-        <v>5.429757997040968</v>
+        <v>5.429757997040906</v>
       </c>
       <c r="F8">
-        <v>66.10686243021307</v>
+        <v>66.10686243021321</v>
       </c>
       <c r="G8">
-        <v>2.15320547585219</v>
+        <v>2.15320547585245</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.776327800548257</v>
+        <v>6.776327800548366</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.507836589297549</v>
+        <v>6.50783658929754</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10834589797121</v>
+        <v>27.10834589797124</v>
       </c>
       <c r="C9">
-        <v>14.97155226772792</v>
+        <v>14.97155226772782</v>
       </c>
       <c r="D9">
-        <v>6.752204382640109</v>
+        <v>6.752204382640172</v>
       </c>
       <c r="E9">
-        <v>5.384056436123083</v>
+        <v>5.384056436122882</v>
       </c>
       <c r="F9">
-        <v>73.5192525241177</v>
+        <v>73.51925252411785</v>
       </c>
       <c r="G9">
-        <v>2.114919236828015</v>
+        <v>2.114919236827619</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.836959516433624</v>
+        <v>6.836959516433468</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.63814867955572</v>
+        <v>6.638148679555607</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.51827986607937</v>
+        <v>29.51827986607941</v>
       </c>
       <c r="C10">
-        <v>16.59354507352053</v>
+        <v>16.59354507352068</v>
       </c>
       <c r="D10">
-        <v>7.306991887819053</v>
+        <v>7.306991887819042</v>
       </c>
       <c r="E10">
-        <v>5.355349092618216</v>
+        <v>5.355349092618282</v>
       </c>
       <c r="F10">
         <v>78.92735549587645</v>
       </c>
       <c r="G10">
-        <v>2.086792203531366</v>
+        <v>2.086792203531405</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.892046608668749</v>
+        <v>6.892046608668702</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.770032355477055</v>
+        <v>6.770032355477039</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.71133217208917</v>
+        <v>30.71133217208918</v>
       </c>
       <c r="C11">
-        <v>17.31602034297058</v>
+        <v>17.31602034297048</v>
       </c>
       <c r="D11">
-        <v>7.557789107699199</v>
+        <v>7.557789107699096</v>
       </c>
       <c r="E11">
-        <v>5.343491236233399</v>
+        <v>5.343491236233473</v>
       </c>
       <c r="F11">
-        <v>81.38860764666559</v>
+        <v>81.38860764666545</v>
       </c>
       <c r="G11">
-        <v>2.073858215827211</v>
+        <v>2.073858215827336</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.919952805775178</v>
+        <v>6.91995280577521</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.839071613977037</v>
+        <v>6.839071613977053</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.16126784530425</v>
+        <v>31.16126784530429</v>
       </c>
       <c r="C12">
-        <v>17.58792260466695</v>
+        <v>17.58792260466703</v>
       </c>
       <c r="D12">
-        <v>7.652680390194114</v>
+        <v>7.652680390194101</v>
       </c>
       <c r="E12">
-        <v>5.339190269200454</v>
+        <v>5.339190269200724</v>
       </c>
       <c r="F12">
-        <v>82.32197072266779</v>
+        <v>82.32197072266798</v>
       </c>
       <c r="G12">
-        <v>2.068926192771979</v>
+        <v>2.068926192772224</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.930986103007099</v>
+        <v>6.930986103007155</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.866634256478676</v>
+        <v>6.866634256478717</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.06443614735996</v>
+        <v>31.06443614735987</v>
       </c>
       <c r="C13">
-        <v>17.52942890959185</v>
+        <v>17.52942890959177</v>
       </c>
       <c r="D13">
-        <v>7.63224464002215</v>
+        <v>7.632244640022074</v>
       </c>
       <c r="E13">
-        <v>5.340107823905812</v>
+        <v>5.340107823905744</v>
       </c>
       <c r="F13">
-        <v>82.12087144005251</v>
+        <v>82.1208714400517</v>
       </c>
       <c r="G13">
-        <v>2.069990170280563</v>
+        <v>2.069990170280433</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.928588155538715</v>
+        <v>6.928588155538665</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.860632927791569</v>
+        <v>6.860632927791594</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.74838135767393</v>
+        <v>30.74838135767384</v>
       </c>
       <c r="C14">
-        <v>17.33842024320901</v>
+        <v>17.33842024320887</v>
       </c>
       <c r="D14">
-        <v>7.565596490155957</v>
+        <v>7.565596490155871</v>
       </c>
       <c r="E14">
-        <v>5.343133486768076</v>
+        <v>5.34313348676807</v>
       </c>
       <c r="F14">
-        <v>81.46536089517997</v>
+        <v>81.46536089517922</v>
       </c>
       <c r="G14">
-        <v>2.073453232315881</v>
+        <v>2.073453232315355</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.920850825328214</v>
+        <v>6.920850825328238</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.841310018216813</v>
+        <v>6.841310018216882</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.55457017555399</v>
+        <v>30.5545701755539</v>
       </c>
       <c r="C15">
-        <v>17.22122014278218</v>
+        <v>17.22122014278207</v>
       </c>
       <c r="D15">
-        <v>7.524767185228118</v>
+        <v>7.524767185228133</v>
       </c>
       <c r="E15">
-        <v>5.345012021648572</v>
+        <v>5.345012021648574</v>
       </c>
       <c r="F15">
-        <v>81.0640583419149</v>
+        <v>81.06405834191487</v>
       </c>
       <c r="G15">
-        <v>2.075569533797443</v>
+        <v>2.075569533797689</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.916174003530393</v>
+        <v>6.91617400353038</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.829662836462139</v>
+        <v>6.829662836462147</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.44001377174386</v>
+        <v>29.44001377174373</v>
       </c>
       <c r="C16">
-        <v>16.54606299033872</v>
+        <v>16.54606299033856</v>
       </c>
       <c r="D16">
-        <v>7.290581582046564</v>
+        <v>7.290581582046594</v>
       </c>
       <c r="E16">
-        <v>5.356149523734623</v>
+        <v>5.356149523734565</v>
       </c>
       <c r="F16">
-        <v>78.76662098463029</v>
+        <v>78.76662098463055</v>
       </c>
       <c r="G16">
-        <v>2.08763352001761</v>
+        <v>2.087633520017602</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.890284756932075</v>
+        <v>6.890284756932165</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.765712144760401</v>
+        <v>6.765712144760484</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78821505662239</v>
+        <v>28.78821505662237</v>
       </c>
       <c r="C17">
         <v>16.12828180721663</v>
       </c>
       <c r="D17">
-        <v>7.146604216751477</v>
+        <v>7.146604216751521</v>
       </c>
       <c r="E17">
-        <v>5.363300170501611</v>
+        <v>5.363300170501462</v>
       </c>
       <c r="F17">
-        <v>77.35821618671429</v>
+        <v>77.35821618671443</v>
       </c>
       <c r="G17">
-        <v>2.094989513342596</v>
+        <v>2.094989513342302</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.875168784845302</v>
+        <v>6.875168784845285</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.728875174376771</v>
+        <v>6.728875174376769</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43401822865167</v>
+        <v>28.43401822865171</v>
       </c>
       <c r="C18">
-        <v>15.88650075153588</v>
+        <v>15.88650075153577</v>
       </c>
       <c r="D18">
-        <v>7.063632708981367</v>
+        <v>7.063632708981387</v>
       </c>
       <c r="E18">
-        <v>5.36752488203351</v>
+        <v>5.367524882033385</v>
       </c>
       <c r="F18">
-        <v>76.54814797133217</v>
+        <v>76.54814797133206</v>
       </c>
       <c r="G18">
-        <v>2.099208409529284</v>
+        <v>2.099208409528897</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.866738525434436</v>
+        <v>6.866738525434444</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.708530752478721</v>
+        <v>6.708530752478676</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31404723186117</v>
+        <v>28.31404723186118</v>
       </c>
       <c r="C19">
         <v>15.80436843900507</v>
       </c>
       <c r="D19">
-        <v>7.035508746231094</v>
+        <v>7.035508746231104</v>
       </c>
       <c r="E19">
-        <v>5.368974070565208</v>
+        <v>5.368974070565268</v>
       </c>
       <c r="F19">
-        <v>76.27384450959138</v>
+        <v>76.27384450959148</v>
       </c>
       <c r="G19">
-        <v>2.100635172035691</v>
+        <v>2.100635172035834</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.86392797419951</v>
+        <v>6.863927974199559</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.701784016607699</v>
+        <v>6.701784016607714</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85374977027651</v>
+        <v>28.85374977027649</v>
       </c>
       <c r="C20">
-        <v>16.17290545408188</v>
+        <v>16.17290545408161</v>
       </c>
       <c r="D20">
-        <v>7.161946427454407</v>
+        <v>7.161946427454315</v>
       </c>
       <c r="E20">
         <v>5.36252728970249</v>
       </c>
       <c r="F20">
-        <v>77.50813501442649</v>
+        <v>77.508135014426</v>
       </c>
       <c r="G20">
-        <v>2.094207799749951</v>
+        <v>2.094207799750085</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.876750200788114</v>
+        <v>6.876750200788092</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.732708467890998</v>
+        <v>6.732708467891041</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.84125843905746</v>
+        <v>30.84125843905742</v>
       </c>
       <c r="C21">
-        <v>17.39456507335754</v>
+        <v>17.39456507335749</v>
       </c>
       <c r="D21">
-        <v>7.585173469138369</v>
+        <v>7.585173469138258</v>
       </c>
       <c r="E21">
-        <v>5.342239482199533</v>
+        <v>5.342239482199465</v>
       </c>
       <c r="F21">
-        <v>81.65785239863575</v>
+        <v>81.65785239863523</v>
       </c>
       <c r="G21">
-        <v>2.072437102669732</v>
+        <v>2.072437102669602</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.923110322542072</v>
+        <v>6.923110322542112</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.846946067254351</v>
+        <v>6.846946067254342</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.14826101839742</v>
+        <v>32.14826101839746</v>
       </c>
       <c r="C22">
-        <v>18.18350465914295</v>
+        <v>18.18350465914297</v>
       </c>
       <c r="D22">
-        <v>7.861408886606607</v>
+        <v>7.861408886606484</v>
       </c>
       <c r="E22">
-        <v>5.330095192821389</v>
+        <v>5.330095192821327</v>
       </c>
       <c r="F22">
-        <v>84.37860236449998</v>
+        <v>84.37860236449939</v>
       </c>
       <c r="G22">
-        <v>2.058000562974891</v>
+        <v>2.058000562975149</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.956158799261818</v>
+        <v>6.956158799261754</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.929949122236209</v>
+        <v>6.929949122236219</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.45137314435129</v>
+        <v>31.45137314435125</v>
       </c>
       <c r="C23">
-        <v>17.76309724712443</v>
+        <v>17.76309724712463</v>
       </c>
       <c r="D23">
-        <v>7.71395084045816</v>
+        <v>7.71395084045824</v>
       </c>
       <c r="E23">
-        <v>5.336468048261654</v>
+        <v>5.336468048261655</v>
       </c>
       <c r="F23">
-        <v>82.92519228653312</v>
+        <v>82.92519228653319</v>
       </c>
       <c r="G23">
-        <v>2.06573013126984</v>
+        <v>2.065730131270107</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.93824711411425</v>
+        <v>6.9382471141143</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.884840625159049</v>
+        <v>6.884840625159034</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82412267842154</v>
+        <v>28.82412267842155</v>
       </c>
       <c r="C24">
-        <v>16.15273610355536</v>
+        <v>16.15273610355534</v>
       </c>
       <c r="D24">
-        <v>7.155010838005167</v>
+        <v>7.155010838005213</v>
       </c>
       <c r="E24">
-        <v>5.362876356082563</v>
+        <v>5.362876356082567</v>
       </c>
       <c r="F24">
-        <v>77.44035790987694</v>
+        <v>77.44035790987685</v>
       </c>
       <c r="G24">
-        <v>2.094561243090404</v>
+        <v>2.094561243090383</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.876034436543183</v>
+        <v>6.876034436543173</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.730972847956281</v>
+        <v>6.730972847956266</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.23344776323534</v>
+        <v>26.23344776323536</v>
       </c>
       <c r="C25">
-        <v>14.35760564936647</v>
+        <v>14.35760564936638</v>
       </c>
       <c r="D25">
-        <v>6.545727895292338</v>
+        <v>6.545727895292357</v>
       </c>
       <c r="E25">
-        <v>5.395604634905639</v>
+        <v>5.395604634905373</v>
       </c>
       <c r="F25">
-        <v>71.52276693604888</v>
+        <v>71.52276693604868</v>
       </c>
       <c r="G25">
-        <v>2.125235335761765</v>
+        <v>2.125235335761635</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.818872233358357</v>
+        <v>6.818872233358316</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.596911754020606</v>
+        <v>6.596911754020551</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30918318928094</v>
+        <v>24.05322551494838</v>
       </c>
       <c r="C2">
-        <v>12.97044497652309</v>
+        <v>14.60180718014848</v>
       </c>
       <c r="D2">
-        <v>6.087878299643057</v>
+        <v>3.981707971770261</v>
       </c>
       <c r="E2">
-        <v>5.422919887234274</v>
+        <v>6.705776790853733</v>
       </c>
       <c r="F2">
-        <v>67.13725304478741</v>
+        <v>27.55945689774724</v>
       </c>
       <c r="G2">
-        <v>2.14787327079559</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>35.64707566749578</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.380626025991586</v>
       </c>
       <c r="J2">
-        <v>6.783657445151168</v>
+        <v>11.86475061750542</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.98346340725468</v>
       </c>
       <c r="L2">
-        <v>6.522040228280121</v>
+        <v>5.667266182307702</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.919433902759993</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.99397095581951</v>
+        <v>22.50684285992987</v>
       </c>
       <c r="C3">
-        <v>11.98356438902324</v>
+        <v>13.66759532061605</v>
       </c>
       <c r="D3">
-        <v>5.770752990773027</v>
+        <v>3.92151785433141</v>
       </c>
       <c r="E3">
-        <v>5.443290701933337</v>
+        <v>6.735153101635914</v>
       </c>
       <c r="F3">
-        <v>64.14179325033824</v>
+        <v>27.13336108810341</v>
       </c>
       <c r="G3">
-        <v>2.163412923765352</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>34.82948488773558</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.648234715822138</v>
       </c>
       <c r="J3">
-        <v>6.763404668696091</v>
+        <v>11.83433685274687</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.09011611353551</v>
       </c>
       <c r="L3">
-        <v>6.484653333236554</v>
+        <v>5.711339067427923</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.69586317547318</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.18186226242901</v>
+        <v>21.50486522630937</v>
       </c>
       <c r="C4">
-        <v>11.35294234828447</v>
+        <v>13.06609025822632</v>
       </c>
       <c r="D4">
-        <v>5.572511061851518</v>
+        <v>3.885655721617752</v>
       </c>
       <c r="E4">
-        <v>5.456679518421277</v>
+        <v>6.754679723938835</v>
       </c>
       <c r="F4">
-        <v>62.29116488170523</v>
+        <v>26.88630637978803</v>
       </c>
       <c r="G4">
-        <v>2.173097194674081</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>34.34448016431707</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.818313517554368</v>
       </c>
       <c r="J4">
-        <v>6.752562021443688</v>
+        <v>11.82208536576319</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.16504537025046</v>
       </c>
       <c r="L4">
-        <v>6.467836253228923</v>
+        <v>5.739036372822697</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.559707198192887</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.85003238259061</v>
+        <v>21.08349045978666</v>
       </c>
       <c r="C5">
-        <v>11.08955401532725</v>
+        <v>12.82320229933704</v>
       </c>
       <c r="D5">
-        <v>5.490837306277766</v>
+        <v>3.872960696106141</v>
       </c>
       <c r="E5">
-        <v>5.462352780430703</v>
+        <v>6.76257808581531</v>
       </c>
       <c r="F5">
-        <v>61.53436629528113</v>
+        <v>26.77418081191383</v>
       </c>
       <c r="G5">
-        <v>2.177085480703509</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>34.12412241856091</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.891724944455167</v>
       </c>
       <c r="J5">
-        <v>6.748518827451838</v>
+        <v>11.81361223520141</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.18764459817023</v>
       </c>
       <c r="L5">
-        <v>6.462464362981144</v>
+        <v>5.750086711567733</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.50671220365177</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.79488813016259</v>
+        <v>21.01283517764113</v>
       </c>
       <c r="C6">
-        <v>11.04542647817122</v>
+        <v>12.79377189380245</v>
       </c>
       <c r="D6">
-        <v>5.477222055584872</v>
+        <v>3.872873462498197</v>
       </c>
       <c r="E6">
-        <v>5.46330782891492</v>
+        <v>6.763386022570541</v>
       </c>
       <c r="F6">
-        <v>61.40854957637214</v>
+        <v>26.73733303621691</v>
       </c>
       <c r="G6">
-        <v>2.177750423326663</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>34.05469052992004</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.907358884685155</v>
       </c>
       <c r="J6">
-        <v>6.747869429889129</v>
+        <v>11.80614192321864</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.17908363025792</v>
       </c>
       <c r="L6">
-        <v>6.461660056413134</v>
+        <v>5.751442465795824</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.500553254183371</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.17739027132056</v>
+        <v>21.49948368215513</v>
       </c>
       <c r="C7">
-        <v>11.34941637652038</v>
+        <v>13.0930635121695</v>
       </c>
       <c r="D7">
-        <v>5.571413168560734</v>
+        <v>3.89091198731732</v>
       </c>
       <c r="E7">
-        <v>5.456755155667048</v>
+        <v>6.753353474161456</v>
       </c>
       <c r="F7">
-        <v>62.28096877165682</v>
+        <v>26.8346423001729</v>
       </c>
       <c r="G7">
-        <v>2.1731508051674</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>34.25170597812293</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.828224669190469</v>
       </c>
       <c r="J7">
-        <v>6.752506005695823</v>
+        <v>11.80517981618946</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.13131734636151</v>
       </c>
       <c r="L7">
-        <v>6.467757888992129</v>
+        <v>5.737863548367412</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.566061348982241</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.85676716526177</v>
+        <v>23.53111631899143</v>
       </c>
       <c r="C8">
-        <v>12.63515900905066</v>
+        <v>14.32248631340086</v>
       </c>
       <c r="D8">
-        <v>5.979258346596489</v>
+        <v>3.967733114066969</v>
       </c>
       <c r="E8">
-        <v>5.429757997040906</v>
+        <v>6.713720138327206</v>
       </c>
       <c r="F8">
-        <v>66.10686243021321</v>
+        <v>27.34445512441688</v>
       </c>
       <c r="G8">
-        <v>2.15320547585245</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>35.24615321997617</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.483310800923937</v>
       </c>
       <c r="J8">
-        <v>6.776327800548366</v>
+        <v>11.83083902574192</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.97311923242706</v>
       </c>
       <c r="L8">
-        <v>6.50783658929754</v>
+        <v>5.68065022787022</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.851152177562174</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10834589797124</v>
+        <v>27.0977405897047</v>
       </c>
       <c r="C9">
-        <v>14.97155226772782</v>
+        <v>16.46491760467521</v>
       </c>
       <c r="D9">
-        <v>6.752204382640172</v>
+        <v>4.117329568098275</v>
       </c>
       <c r="E9">
-        <v>5.384056436122882</v>
+        <v>6.650508963610028</v>
       </c>
       <c r="F9">
-        <v>73.51925252411785</v>
+        <v>28.54820559630555</v>
       </c>
       <c r="G9">
-        <v>2.114919236827619</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>37.48221723127637</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.836589993043378</v>
       </c>
       <c r="J9">
-        <v>6.836959516433468</v>
+        <v>11.96468184923722</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.80474569729382</v>
       </c>
       <c r="L9">
-        <v>6.638148679555607</v>
+        <v>5.575528127268113</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.40421994999998</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.51827986607941</v>
+        <v>29.48086074840051</v>
       </c>
       <c r="C10">
-        <v>16.59354507352068</v>
+        <v>17.91917250726577</v>
       </c>
       <c r="D10">
-        <v>7.306991887819042</v>
+        <v>4.234355223607344</v>
       </c>
       <c r="E10">
-        <v>5.355349092618282</v>
+        <v>6.610935248386363</v>
       </c>
       <c r="F10">
-        <v>78.92735549587645</v>
+        <v>29.48138197307529</v>
       </c>
       <c r="G10">
-        <v>2.086792203531405</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>39.15936917268178</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.574697866400524</v>
       </c>
       <c r="J10">
-        <v>6.892046608668702</v>
+        <v>12.09150426185758</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.72203168929678</v>
       </c>
       <c r="L10">
-        <v>6.770032355477039</v>
+        <v>5.500332404661394</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.813834501505156</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.71133217208918</v>
+        <v>30.53097308711027</v>
       </c>
       <c r="C11">
-        <v>17.31602034297048</v>
+        <v>18.58845113524882</v>
       </c>
       <c r="D11">
-        <v>7.557789107699096</v>
+        <v>4.296391020895777</v>
       </c>
       <c r="E11">
-        <v>5.343491236233473</v>
+        <v>6.592365241205163</v>
       </c>
       <c r="F11">
-        <v>81.38860764666545</v>
+        <v>29.84877128095274</v>
       </c>
       <c r="G11">
-        <v>2.073858215827336</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>39.81247517528539</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.776286478202385</v>
       </c>
       <c r="J11">
-        <v>6.91995280577521</v>
+        <v>12.13179309945073</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.64345583369327</v>
       </c>
       <c r="L11">
-        <v>6.839071613977053</v>
+        <v>5.464746784505615</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.00913508299306</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.16126784530429</v>
+        <v>30.92071081610246</v>
       </c>
       <c r="C12">
-        <v>17.58792260466703</v>
+        <v>18.81811400912567</v>
       </c>
       <c r="D12">
-        <v>7.652680390194101</v>
+        <v>4.315745168284614</v>
       </c>
       <c r="E12">
-        <v>5.339190269200724</v>
+        <v>6.586793309491556</v>
       </c>
       <c r="F12">
-        <v>82.32197072266798</v>
+        <v>30.02971255562284</v>
       </c>
       <c r="G12">
-        <v>2.068926192772224</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>40.13026082663591</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.849255376354726</v>
       </c>
       <c r="J12">
-        <v>6.930986103007155</v>
+        <v>12.16241570904837</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.64552709510358</v>
       </c>
       <c r="L12">
-        <v>6.866634256478717</v>
+        <v>5.452346532467532</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>9.077742581422216</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.06443614735987</v>
+        <v>30.83722771834753</v>
       </c>
       <c r="C13">
-        <v>17.52942890959177</v>
+        <v>18.76495928057305</v>
       </c>
       <c r="D13">
-        <v>7.632244640022074</v>
+        <v>4.310724268674415</v>
       </c>
       <c r="E13">
-        <v>5.340107823905744</v>
+        <v>6.588225118436274</v>
       </c>
       <c r="F13">
-        <v>82.1208714400517</v>
+        <v>29.99847467771637</v>
       </c>
       <c r="G13">
-        <v>2.069990170280433</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>40.07519779379295</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.832931125415869</v>
       </c>
       <c r="J13">
-        <v>6.928588155538665</v>
+        <v>12.15856415419931</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.65091177517704</v>
       </c>
       <c r="L13">
-        <v>6.860632927791594</v>
+        <v>5.455215260795726</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>9.06194455993858</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.74838135767384</v>
+        <v>30.56323934789375</v>
       </c>
       <c r="C14">
-        <v>17.33842024320887</v>
+        <v>18.60576833153466</v>
       </c>
       <c r="D14">
-        <v>7.565596490155871</v>
+        <v>4.297619614781211</v>
       </c>
       <c r="E14">
-        <v>5.34313348676807</v>
+        <v>6.5920050575041</v>
       </c>
       <c r="F14">
-        <v>81.46536089517922</v>
+        <v>29.86695255862329</v>
       </c>
       <c r="G14">
-        <v>2.073453232315355</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>39.84433038253029</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.782016990482241</v>
       </c>
       <c r="J14">
-        <v>6.920850825328238</v>
+        <v>12.13547866865307</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.6461013111024</v>
       </c>
       <c r="L14">
-        <v>6.841310018216882</v>
+        <v>5.463810861494247</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>9.014342884016742</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.5545701755539</v>
+        <v>30.394166096552</v>
       </c>
       <c r="C15">
-        <v>17.22122014278207</v>
+        <v>18.51548358993896</v>
       </c>
       <c r="D15">
-        <v>7.524767185228133</v>
+        <v>4.291289377778966</v>
       </c>
       <c r="E15">
-        <v>5.345012021648574</v>
+        <v>6.593874320741287</v>
       </c>
       <c r="F15">
-        <v>81.06405834191487</v>
+        <v>29.77114275408999</v>
       </c>
       <c r="G15">
-        <v>2.075569533797689</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>39.67639050257125</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.752186219210919</v>
       </c>
       <c r="J15">
-        <v>6.91617400353038</v>
+        <v>12.11597292331719</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.63176791227578</v>
       </c>
       <c r="L15">
-        <v>6.829662836462147</v>
+        <v>5.468687204770012</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>8.987215436035603</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.44001377174373</v>
+        <v>29.40968104110014</v>
       </c>
       <c r="C16">
-        <v>16.54606299033856</v>
+        <v>17.94156372723835</v>
       </c>
       <c r="D16">
-        <v>7.290581582046594</v>
+        <v>4.244605829507516</v>
       </c>
       <c r="E16">
-        <v>5.356149523734565</v>
+        <v>6.60814267157523</v>
       </c>
       <c r="F16">
-        <v>78.76662098463055</v>
+        <v>29.32521838792536</v>
       </c>
       <c r="G16">
-        <v>2.087633520017602</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>38.88780701407313</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.572586088489665</v>
       </c>
       <c r="J16">
-        <v>6.890284756932165</v>
+        <v>12.0421188026188</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.62881399638857</v>
       </c>
       <c r="L16">
-        <v>6.765712144760484</v>
+        <v>5.499286849581524</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>8.818579436172071</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78821505662237</v>
+        <v>28.79519599455929</v>
       </c>
       <c r="C17">
-        <v>16.12828180721663</v>
+        <v>17.58244033666095</v>
       </c>
       <c r="D17">
-        <v>7.146604216751521</v>
+        <v>4.216167906589105</v>
       </c>
       <c r="E17">
-        <v>5.363300170501462</v>
+        <v>6.617351928598501</v>
       </c>
       <c r="F17">
-        <v>77.35821618671443</v>
+        <v>29.05599382039955</v>
       </c>
       <c r="G17">
-        <v>2.094989513342302</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>38.40822435835724</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.556078339875973</v>
       </c>
       <c r="J17">
-        <v>6.875168784845285</v>
+        <v>11.99927152010329</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.63129994553452</v>
       </c>
       <c r="L17">
-        <v>6.728875174376769</v>
+        <v>5.518189582426548</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>8.714929857129945</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43401822865171</v>
+        <v>28.44444100009794</v>
       </c>
       <c r="C18">
-        <v>15.88650075153577</v>
+        <v>17.35244063678265</v>
       </c>
       <c r="D18">
-        <v>7.063632708981387</v>
+        <v>4.195496269724607</v>
       </c>
       <c r="E18">
-        <v>5.367524882033385</v>
+        <v>6.624039718711226</v>
       </c>
       <c r="F18">
-        <v>76.54814797133206</v>
+        <v>28.94340804198495</v>
       </c>
       <c r="G18">
-        <v>2.099208409528897</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>38.20464206813581</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.613917748203226</v>
       </c>
       <c r="J18">
-        <v>6.866738525434444</v>
+        <v>11.98979727012745</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.66407977521739</v>
       </c>
       <c r="L18">
-        <v>6.708530752478676</v>
+        <v>5.530140636917158</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>8.649836911973772</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31404723186118</v>
+        <v>28.3247425706233</v>
       </c>
       <c r="C19">
-        <v>15.80436843900507</v>
+        <v>17.29014999912976</v>
       </c>
       <c r="D19">
-        <v>7.035508746231104</v>
+        <v>4.191893001592647</v>
       </c>
       <c r="E19">
-        <v>5.368974070565268</v>
+        <v>6.62538733849207</v>
       </c>
       <c r="F19">
-        <v>76.27384450959148</v>
+        <v>28.87422687114776</v>
       </c>
       <c r="G19">
-        <v>2.100635172035834</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>38.08153963256226</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.641665435452188</v>
       </c>
       <c r="J19">
-        <v>6.863927974199559</v>
+        <v>11.97572273904365</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.65242162212257</v>
       </c>
       <c r="L19">
-        <v>6.701784016607714</v>
+        <v>5.533402437156082</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.631961408945083</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85374977027649</v>
+        <v>28.85971381392461</v>
       </c>
       <c r="C20">
-        <v>16.17290545408161</v>
+        <v>17.61932335818686</v>
       </c>
       <c r="D20">
-        <v>7.161946427454315</v>
+        <v>4.218844432600409</v>
       </c>
       <c r="E20">
-        <v>5.36252728970249</v>
+        <v>6.616450493250003</v>
       </c>
       <c r="F20">
-        <v>77.508135014426</v>
+        <v>29.08766229618128</v>
       </c>
       <c r="G20">
-        <v>2.094207799750085</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>38.46462209382251</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.542617393886806</v>
       </c>
       <c r="J20">
-        <v>6.876750200788092</v>
+        <v>12.00485946295794</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.63321666948238</v>
       </c>
       <c r="L20">
-        <v>6.732708467891041</v>
+        <v>5.516252549539542</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.72554806347423</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.84125843905742</v>
+        <v>30.64346706469273</v>
       </c>
       <c r="C21">
-        <v>17.39456507335749</v>
+        <v>18.67441519005564</v>
       </c>
       <c r="D21">
-        <v>7.585173469138258</v>
+        <v>4.306227868199946</v>
       </c>
       <c r="E21">
-        <v>5.342239482199465</v>
+        <v>6.589524768675058</v>
       </c>
       <c r="F21">
-        <v>81.65785239863523</v>
+        <v>29.86150177921569</v>
       </c>
       <c r="G21">
-        <v>2.072437102669602</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>39.83632165191114</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.800846148138747</v>
       </c>
       <c r="J21">
-        <v>6.923110322542112</v>
+        <v>12.12648441577221</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.61417529712278</v>
       </c>
       <c r="L21">
-        <v>6.846946067254342</v>
+        <v>5.46015858291821</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.034113424960378</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.14826101839746</v>
+        <v>31.76297079355349</v>
       </c>
       <c r="C22">
-        <v>18.18350465914297</v>
+        <v>19.31353191623997</v>
       </c>
       <c r="D22">
-        <v>7.861408886606484</v>
+        <v>4.357926992063768</v>
       </c>
       <c r="E22">
-        <v>5.330095192821327</v>
+        <v>6.575177151699751</v>
       </c>
       <c r="F22">
-        <v>84.37860236449939</v>
+        <v>30.43726023441751</v>
       </c>
       <c r="G22">
-        <v>2.058000562975149</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>40.84225198362781</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.008943231454377</v>
       </c>
       <c r="J22">
-        <v>6.956158799261754</v>
+        <v>12.23425861008549</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.65876672397322</v>
       </c>
       <c r="L22">
-        <v>6.929949122236219</v>
+        <v>5.425330260713551</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.227636729724605</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.45137314435125</v>
+        <v>31.17044730765478</v>
       </c>
       <c r="C23">
-        <v>17.76309724712463</v>
+        <v>18.94849634551992</v>
       </c>
       <c r="D23">
-        <v>7.71395084045824</v>
+        <v>4.324566145821889</v>
       </c>
       <c r="E23">
-        <v>5.336468048261655</v>
+        <v>6.584336053572374</v>
       </c>
       <c r="F23">
-        <v>82.92519228653319</v>
+        <v>30.18146874726401</v>
       </c>
       <c r="G23">
-        <v>2.065730131270107</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>40.39490226610582</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.893863507877742</v>
       </c>
       <c r="J23">
-        <v>6.9382471141143</v>
+        <v>12.19488444870461</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.67366540829293</v>
       </c>
       <c r="L23">
-        <v>6.884840625159034</v>
+        <v>5.445239606871628</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.117511213865075</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82412267842155</v>
+        <v>28.83073591797598</v>
       </c>
       <c r="C24">
-        <v>16.15273610355534</v>
+        <v>17.55908954572102</v>
       </c>
       <c r="D24">
-        <v>7.155010838005213</v>
+        <v>4.208396135775743</v>
       </c>
       <c r="E24">
-        <v>5.362876356082567</v>
+        <v>6.619449443114693</v>
       </c>
       <c r="F24">
-        <v>77.44035790987685</v>
+        <v>29.15897216963451</v>
       </c>
       <c r="G24">
-        <v>2.094561243090383</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>38.58769328998255</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.527095147691369</v>
       </c>
       <c r="J24">
-        <v>6.876034436543173</v>
+        <v>12.03251320488161</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.69553482649908</v>
       </c>
       <c r="L24">
-        <v>6.730972847956266</v>
+        <v>5.519302614184637</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.709371909163396</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.23344776323536</v>
+        <v>26.1775383970999</v>
       </c>
       <c r="C25">
-        <v>14.35760564936638</v>
+        <v>15.95446871724977</v>
       </c>
       <c r="D25">
-        <v>6.545727895292357</v>
+        <v>4.085260543998396</v>
       </c>
       <c r="E25">
-        <v>5.395604634905373</v>
+        <v>6.663767264239212</v>
       </c>
       <c r="F25">
-        <v>71.52276693604868</v>
+        <v>28.1239649851679</v>
       </c>
       <c r="G25">
-        <v>2.125235335761635</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>36.71292271711221</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.024307942523087</v>
       </c>
       <c r="J25">
-        <v>6.818872233358316</v>
+        <v>11.89257717880001</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.77922793138038</v>
       </c>
       <c r="L25">
-        <v>6.596911754020551</v>
+        <v>5.601289475030072</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.265958107740166</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.05322551494838</v>
+        <v>24.04361221777185</v>
       </c>
       <c r="C2">
-        <v>14.60180718014848</v>
+        <v>15.19073858733515</v>
       </c>
       <c r="D2">
-        <v>3.981707971770261</v>
+        <v>4.157333737817786</v>
       </c>
       <c r="E2">
-        <v>6.705776790853733</v>
+        <v>6.597219098680426</v>
       </c>
       <c r="F2">
-        <v>27.55945689774724</v>
+        <v>25.96562126984842</v>
       </c>
       <c r="G2">
-        <v>35.64707566749578</v>
+        <v>32.59330853095739</v>
       </c>
       <c r="I2">
-        <v>3.380626025991586</v>
+        <v>3.187743432058317</v>
       </c>
       <c r="J2">
-        <v>11.86475061750542</v>
+        <v>11.54032187164222</v>
       </c>
       <c r="K2">
-        <v>17.98346340725468</v>
+        <v>16.6841183580274</v>
       </c>
       <c r="L2">
-        <v>5.667266182307702</v>
+        <v>13.56879249153301</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.14198566691838</v>
       </c>
       <c r="N2">
-        <v>7.919433902759993</v>
+        <v>5.553623505770469</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.142593023999915</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50684285992987</v>
+        <v>22.4846306726592</v>
       </c>
       <c r="C3">
-        <v>13.66759532061605</v>
+        <v>14.1581502751751</v>
       </c>
       <c r="D3">
-        <v>3.92151785433141</v>
+        <v>4.086956766658338</v>
       </c>
       <c r="E3">
-        <v>6.735153101635914</v>
+        <v>6.631483670426501</v>
       </c>
       <c r="F3">
-        <v>27.13336108810341</v>
+        <v>25.65917780503253</v>
       </c>
       <c r="G3">
-        <v>34.82948488773558</v>
+        <v>32.05428311926707</v>
       </c>
       <c r="I3">
-        <v>3.648234715822138</v>
+        <v>3.417583123323265</v>
       </c>
       <c r="J3">
-        <v>11.83433685274687</v>
+        <v>11.49139379507081</v>
       </c>
       <c r="K3">
-        <v>18.09011611353551</v>
+        <v>16.86577584895322</v>
       </c>
       <c r="L3">
-        <v>5.711339067427923</v>
+        <v>13.73837938009053</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.26184442425878</v>
       </c>
       <c r="N3">
-        <v>7.69586317547318</v>
+        <v>5.594488571730093</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.897749208016261</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.50486522630937</v>
+        <v>21.47213414942957</v>
       </c>
       <c r="C4">
-        <v>13.06609025822632</v>
+        <v>13.49172543225981</v>
       </c>
       <c r="D4">
-        <v>3.885655721617752</v>
+        <v>4.045088993449973</v>
       </c>
       <c r="E4">
-        <v>6.754679723938835</v>
+        <v>6.654007174762734</v>
       </c>
       <c r="F4">
-        <v>26.88630637978803</v>
+        <v>25.4828355931208</v>
       </c>
       <c r="G4">
-        <v>34.34448016431707</v>
+        <v>31.74504922045908</v>
       </c>
       <c r="I4">
-        <v>3.818313517554368</v>
+        <v>3.564086727155237</v>
       </c>
       <c r="J4">
-        <v>11.82208536576319</v>
+        <v>11.46337006796551</v>
       </c>
       <c r="K4">
-        <v>18.16504537025046</v>
+        <v>16.9837909970367</v>
       </c>
       <c r="L4">
-        <v>5.739036372822697</v>
+        <v>13.84223299618848</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.36032988218424</v>
       </c>
       <c r="N4">
-        <v>7.559707198192887</v>
+        <v>5.620202114545805</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.748092534487543</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.08349045978666</v>
+        <v>21.04570790575247</v>
       </c>
       <c r="C5">
-        <v>12.82320229933704</v>
+        <v>13.22082771205151</v>
       </c>
       <c r="D5">
-        <v>3.872960696106141</v>
+        <v>4.029939000652257</v>
       </c>
       <c r="E5">
-        <v>6.76257808581531</v>
+        <v>6.663185200920757</v>
       </c>
       <c r="F5">
-        <v>26.77418081191383</v>
+        <v>25.40009614616558</v>
       </c>
       <c r="G5">
-        <v>34.12412241856091</v>
+        <v>31.5995900261751</v>
       </c>
       <c r="I5">
-        <v>3.891724944455167</v>
+        <v>3.628206633428588</v>
       </c>
       <c r="J5">
-        <v>11.81361223520141</v>
+        <v>11.44780161630177</v>
       </c>
       <c r="K5">
-        <v>18.18764459817023</v>
+        <v>17.02454343180762</v>
       </c>
       <c r="L5">
-        <v>5.750086711567733</v>
+        <v>13.87645622886548</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.40109679703922</v>
       </c>
       <c r="N5">
-        <v>7.50671220365177</v>
+        <v>5.630527777126037</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.689334214520145</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.01283517764113</v>
+        <v>20.97413449204796</v>
       </c>
       <c r="C6">
-        <v>12.79377189380245</v>
+        <v>13.18616721294062</v>
       </c>
       <c r="D6">
-        <v>3.872873462498197</v>
+        <v>4.029353471287658</v>
       </c>
       <c r="E6">
-        <v>6.763386022570541</v>
+        <v>6.664277674145295</v>
       </c>
       <c r="F6">
-        <v>26.73733303621691</v>
+        <v>25.36968175462808</v>
       </c>
       <c r="G6">
-        <v>34.05469052992004</v>
+        <v>31.54546443704577</v>
       </c>
       <c r="I6">
-        <v>3.907358884685155</v>
+        <v>3.642849386824967</v>
       </c>
       <c r="J6">
-        <v>11.80614192321864</v>
+        <v>11.43957686777221</v>
       </c>
       <c r="K6">
-        <v>18.17908363025792</v>
+        <v>17.02055443737334</v>
       </c>
       <c r="L6">
-        <v>5.751442465795824</v>
+        <v>13.87233099741086</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.40165181438221</v>
       </c>
       <c r="N6">
-        <v>7.500553254183371</v>
+        <v>5.631871008007167</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.682006652421306</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.49948368215513</v>
+        <v>21.46669527032982</v>
       </c>
       <c r="C7">
-        <v>13.0930635121695</v>
+        <v>13.50644022477639</v>
       </c>
       <c r="D7">
-        <v>3.89091198731732</v>
+        <v>4.054908112139332</v>
       </c>
       <c r="E7">
-        <v>6.753353474161456</v>
+        <v>6.653893706371964</v>
       </c>
       <c r="F7">
-        <v>26.8346423001729</v>
+        <v>25.40986867548001</v>
       </c>
       <c r="G7">
-        <v>34.25170597812293</v>
+        <v>31.72105993252599</v>
       </c>
       <c r="I7">
-        <v>3.828224669190469</v>
+        <v>3.576174288281912</v>
       </c>
       <c r="J7">
-        <v>11.80517981618946</v>
+        <v>11.39837854694275</v>
       </c>
       <c r="K7">
-        <v>18.13131734636151</v>
+        <v>16.9415926615084</v>
       </c>
       <c r="L7">
-        <v>5.737863548367412</v>
+        <v>13.80468319197167</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.33419785675792</v>
       </c>
       <c r="N7">
-        <v>7.566061348982241</v>
+        <v>5.61907112609786</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.75374533333123</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.53111631899143</v>
+        <v>23.51777373050881</v>
       </c>
       <c r="C8">
-        <v>14.32248631340086</v>
+        <v>14.84444599387279</v>
       </c>
       <c r="D8">
-        <v>3.967733114066969</v>
+        <v>4.155377439855465</v>
       </c>
       <c r="E8">
-        <v>6.713720138327206</v>
+        <v>6.610466551855025</v>
       </c>
       <c r="F8">
-        <v>27.34445512441688</v>
+        <v>25.71336754024611</v>
       </c>
       <c r="G8">
-        <v>35.24615321997617</v>
+        <v>32.49424168944157</v>
       </c>
       <c r="I8">
-        <v>3.483310800923937</v>
+        <v>3.28196751857821</v>
       </c>
       <c r="J8">
-        <v>11.83083902574192</v>
+        <v>11.34148483566551</v>
       </c>
       <c r="K8">
-        <v>17.97311923242706</v>
+        <v>16.66313931265089</v>
       </c>
       <c r="L8">
-        <v>5.68065022787022</v>
+        <v>13.55879864975321</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.12131113202031</v>
       </c>
       <c r="N8">
-        <v>7.851152177562174</v>
+        <v>5.565558443583223</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.066045704936661</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.0977405897047</v>
+        <v>27.10139608413145</v>
       </c>
       <c r="C9">
-        <v>16.46491760467521</v>
+        <v>17.20489701090942</v>
       </c>
       <c r="D9">
-        <v>4.117329568098275</v>
+        <v>4.335420437456007</v>
       </c>
       <c r="E9">
-        <v>6.650508963610028</v>
+        <v>6.535752471839783</v>
       </c>
       <c r="F9">
-        <v>28.54820559630555</v>
+        <v>26.58085964135241</v>
       </c>
       <c r="G9">
-        <v>37.48221723127637</v>
+        <v>34.10623792721101</v>
       </c>
       <c r="I9">
-        <v>2.836589993043378</v>
+        <v>2.726616531790992</v>
       </c>
       <c r="J9">
-        <v>11.96468184923722</v>
+        <v>11.45177924409925</v>
       </c>
       <c r="K9">
-        <v>17.80474569729382</v>
+        <v>16.27269899297739</v>
       </c>
       <c r="L9">
-        <v>5.575528127268113</v>
+        <v>13.15940950070224</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.97917039839333</v>
       </c>
       <c r="N9">
-        <v>8.40421994999998</v>
+        <v>5.467959946752267</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.669492817332765</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.48086074840051</v>
+        <v>29.49765611292489</v>
       </c>
       <c r="C10">
-        <v>17.91917250726577</v>
+        <v>18.75039788453478</v>
       </c>
       <c r="D10">
-        <v>4.234355223607344</v>
+        <v>4.501765898070467</v>
       </c>
       <c r="E10">
-        <v>6.610935248386363</v>
+        <v>6.493909772169366</v>
       </c>
       <c r="F10">
-        <v>29.48138197307529</v>
+        <v>27.12096392040886</v>
       </c>
       <c r="G10">
-        <v>39.15936917268178</v>
+        <v>35.69043453967271</v>
       </c>
       <c r="I10">
-        <v>2.574697866400524</v>
+        <v>2.623389196100003</v>
       </c>
       <c r="J10">
-        <v>12.09150426185758</v>
+        <v>11.26486106688546</v>
       </c>
       <c r="K10">
-        <v>17.72203168929678</v>
+        <v>15.93628115053228</v>
       </c>
       <c r="L10">
-        <v>5.500332404661394</v>
+        <v>12.80046338102086</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.94155231184573</v>
       </c>
       <c r="N10">
-        <v>8.813834501505156</v>
+        <v>5.397399870653398</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.111578537181266</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.53097308711027</v>
+        <v>30.5347901184715</v>
       </c>
       <c r="C11">
-        <v>18.58845113524882</v>
+        <v>19.37621020142647</v>
       </c>
       <c r="D11">
-        <v>4.296391020895777</v>
+        <v>4.633049170233215</v>
       </c>
       <c r="E11">
-        <v>6.592365241205163</v>
+        <v>6.485950093909902</v>
       </c>
       <c r="F11">
-        <v>29.84877128095274</v>
+        <v>27.07267319885278</v>
       </c>
       <c r="G11">
-        <v>39.81247517528539</v>
+        <v>36.88753757553208</v>
       </c>
       <c r="I11">
-        <v>2.776286478202385</v>
+        <v>2.792011841791665</v>
       </c>
       <c r="J11">
-        <v>12.13179309945073</v>
+        <v>10.69961734685337</v>
       </c>
       <c r="K11">
-        <v>17.64345583369327</v>
+        <v>15.6139807221045</v>
       </c>
       <c r="L11">
-        <v>5.464746784505615</v>
+        <v>12.51623657658572</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.80476828363961</v>
       </c>
       <c r="N11">
-        <v>9.00913508299306</v>
+        <v>5.362742935613359</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.318187142916406</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.92071081610246</v>
+        <v>30.91912124124551</v>
       </c>
       <c r="C12">
-        <v>18.81811400912567</v>
+        <v>19.58103241686264</v>
       </c>
       <c r="D12">
-        <v>4.315745168284614</v>
+        <v>4.684819157950142</v>
       </c>
       <c r="E12">
-        <v>6.586793309491556</v>
+        <v>6.485899022244747</v>
       </c>
       <c r="F12">
-        <v>30.02971255562284</v>
+        <v>27.06253880910051</v>
       </c>
       <c r="G12">
-        <v>40.13026082663591</v>
+        <v>37.47704473573685</v>
       </c>
       <c r="I12">
-        <v>2.849255376354726</v>
+        <v>2.850879244305836</v>
       </c>
       <c r="J12">
-        <v>12.16241570904837</v>
+        <v>10.44747964995993</v>
       </c>
       <c r="K12">
-        <v>17.64552709510358</v>
+        <v>15.50135973937324</v>
       </c>
       <c r="L12">
-        <v>5.452346532467532</v>
+        <v>12.41585854361644</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.76293655644451</v>
       </c>
       <c r="N12">
-        <v>9.077742581422216</v>
+        <v>5.350185734080218</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>9.391080629362413</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.83722771834753</v>
+        <v>30.83681194277714</v>
       </c>
       <c r="C13">
-        <v>18.76495928057305</v>
+        <v>19.53384987444866</v>
       </c>
       <c r="D13">
-        <v>4.310724268674415</v>
+        <v>4.672561257027911</v>
       </c>
       <c r="E13">
-        <v>6.588225118436274</v>
+        <v>6.486033419094489</v>
       </c>
       <c r="F13">
-        <v>29.99847467771637</v>
+        <v>27.07301643182095</v>
       </c>
       <c r="G13">
-        <v>40.07519779379295</v>
+        <v>37.3591959859543</v>
       </c>
       <c r="I13">
-        <v>2.832931125415869</v>
+        <v>2.837372959421113</v>
       </c>
       <c r="J13">
-        <v>12.15856415419931</v>
+        <v>10.50606694141712</v>
       </c>
       <c r="K13">
-        <v>17.65091177517704</v>
+        <v>15.53122145060898</v>
       </c>
       <c r="L13">
-        <v>5.455215260795726</v>
+        <v>12.44123734688055</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.77657710915764</v>
       </c>
       <c r="N13">
-        <v>9.06194455993858</v>
+        <v>5.353028127950998</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>9.374465354622862</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.56323934789375</v>
+        <v>30.56661628424694</v>
       </c>
       <c r="C14">
-        <v>18.60576833153466</v>
+        <v>19.39175937012226</v>
       </c>
       <c r="D14">
-        <v>4.297619614781211</v>
+        <v>4.636830327061057</v>
       </c>
       <c r="E14">
-        <v>6.5920050575041</v>
+        <v>6.48599613756433</v>
       </c>
       <c r="F14">
-        <v>29.86695255862329</v>
+        <v>27.0754082820364</v>
       </c>
       <c r="G14">
-        <v>39.84433038253029</v>
+        <v>36.93985139423653</v>
       </c>
       <c r="I14">
-        <v>2.782016990482241</v>
+        <v>2.796489064758541</v>
       </c>
       <c r="J14">
-        <v>12.13547866865307</v>
+        <v>10.68078219907137</v>
       </c>
       <c r="K14">
-        <v>17.6461013111024</v>
+        <v>15.60712175861184</v>
       </c>
       <c r="L14">
-        <v>5.463810861494247</v>
+        <v>12.50960407319185</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.80330343235764</v>
       </c>
       <c r="N14">
-        <v>9.014342884016742</v>
+        <v>5.36176911614982</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>9.323793024598185</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.394166096552</v>
+        <v>30.39982685345337</v>
       </c>
       <c r="C15">
-        <v>18.51548358993896</v>
+        <v>19.31031994267063</v>
       </c>
       <c r="D15">
-        <v>4.291289377778966</v>
+        <v>4.617395189429917</v>
       </c>
       <c r="E15">
-        <v>6.593874320741287</v>
+        <v>6.485814502206716</v>
       </c>
       <c r="F15">
-        <v>29.77114275408999</v>
+        <v>27.05923406598269</v>
       </c>
       <c r="G15">
-        <v>39.67639050257125</v>
+        <v>36.66794255965256</v>
       </c>
       <c r="I15">
-        <v>2.752186219210919</v>
+        <v>2.773225859438704</v>
       </c>
       <c r="J15">
-        <v>12.11597292331719</v>
+        <v>10.77702112626101</v>
       </c>
       <c r="K15">
-        <v>17.63176791227578</v>
+        <v>15.64185040601523</v>
       </c>
       <c r="L15">
-        <v>5.468687204770012</v>
+        <v>12.54350391630189</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.81012288648432</v>
       </c>
       <c r="N15">
-        <v>8.987215436035603</v>
+        <v>5.366842077750824</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>9.294557274704214</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.40968104110014</v>
+        <v>29.427398851868</v>
       </c>
       <c r="C16">
-        <v>17.94156372723835</v>
+        <v>18.7708206006788</v>
       </c>
       <c r="D16">
-        <v>4.244605829507516</v>
+        <v>4.507820320875032</v>
       </c>
       <c r="E16">
-        <v>6.60814267157523</v>
+        <v>6.491182330408432</v>
       </c>
       <c r="F16">
-        <v>29.32521838792536</v>
+        <v>27.00063296396924</v>
       </c>
       <c r="G16">
-        <v>38.88780701407313</v>
+        <v>35.41158959052387</v>
       </c>
       <c r="I16">
-        <v>2.572586088489665</v>
+        <v>2.627098059188122</v>
       </c>
       <c r="J16">
-        <v>12.0421188026188</v>
+        <v>11.25483088373178</v>
       </c>
       <c r="K16">
-        <v>17.62881399638857</v>
+        <v>15.87234298738361</v>
       </c>
       <c r="L16">
-        <v>5.499286849581524</v>
+        <v>12.75946771780382</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.88079763367782</v>
       </c>
       <c r="N16">
-        <v>8.818579436172071</v>
+        <v>5.397339601038839</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>9.114087648905187</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.79519599455929</v>
+        <v>28.81508462277061</v>
       </c>
       <c r="C17">
-        <v>17.58244033666095</v>
+        <v>18.41576752003427</v>
       </c>
       <c r="D17">
-        <v>4.216167906589105</v>
+        <v>4.450996484896306</v>
       </c>
       <c r="E17">
-        <v>6.617351928598501</v>
+        <v>6.497540222477895</v>
       </c>
       <c r="F17">
-        <v>29.05599382039955</v>
+        <v>26.91713431422337</v>
       </c>
       <c r="G17">
-        <v>38.40822435835724</v>
+        <v>34.76841323859237</v>
       </c>
       <c r="I17">
-        <v>2.556078339875973</v>
+        <v>2.536170477129846</v>
       </c>
       <c r="J17">
-        <v>11.99927152010329</v>
+        <v>11.45372951699065</v>
       </c>
       <c r="K17">
-        <v>17.63129994553452</v>
+        <v>15.98782931519723</v>
       </c>
       <c r="L17">
-        <v>5.518189582426548</v>
+        <v>12.87365453243948</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.90755890397122</v>
       </c>
       <c r="N17">
-        <v>8.714929857129945</v>
+        <v>5.415815259419336</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>9.00250638107655</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44444100009794</v>
+        <v>28.45744615275811</v>
       </c>
       <c r="C18">
-        <v>17.35244063678265</v>
+        <v>18.18285014140456</v>
       </c>
       <c r="D18">
-        <v>4.195496269724607</v>
+        <v>4.417747975557109</v>
       </c>
       <c r="E18">
-        <v>6.624039718711226</v>
+        <v>6.503277819578966</v>
       </c>
       <c r="F18">
-        <v>28.94340804198495</v>
+        <v>26.88891722518121</v>
       </c>
       <c r="G18">
-        <v>38.20464206813581</v>
+        <v>34.50897248160285</v>
       </c>
       <c r="I18">
-        <v>2.613917748203226</v>
+        <v>2.545109719888281</v>
       </c>
       <c r="J18">
-        <v>11.98979727012745</v>
+        <v>11.54536310800406</v>
       </c>
       <c r="K18">
-        <v>17.66407977521739</v>
+        <v>16.07039178726308</v>
       </c>
       <c r="L18">
-        <v>5.530140636917158</v>
+        <v>12.95071607044301</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.93785728268741</v>
       </c>
       <c r="N18">
-        <v>8.649836911973772</v>
+        <v>5.427067657272397</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.933071454595236</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.3247425706233</v>
+        <v>28.33506570551488</v>
       </c>
       <c r="C19">
-        <v>17.29014999912976</v>
+        <v>18.11765658354475</v>
       </c>
       <c r="D19">
-        <v>4.191893001592647</v>
+        <v>4.410353755013209</v>
       </c>
       <c r="E19">
-        <v>6.62538733849207</v>
+        <v>6.504578193598885</v>
       </c>
       <c r="F19">
-        <v>28.87422687114776</v>
+        <v>26.84812003160263</v>
       </c>
       <c r="G19">
-        <v>38.08153963256226</v>
+        <v>34.37886828201195</v>
       </c>
       <c r="I19">
-        <v>2.641665435452188</v>
+        <v>2.570018514691959</v>
       </c>
       <c r="J19">
-        <v>11.97572273904365</v>
+        <v>11.56072640636511</v>
       </c>
       <c r="K19">
-        <v>17.65242162212257</v>
+        <v>16.07733846086995</v>
       </c>
       <c r="L19">
-        <v>5.533402437156082</v>
+        <v>12.9616517139291</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.93145565281</v>
       </c>
       <c r="N19">
-        <v>8.631961408945083</v>
+        <v>5.43031122592406</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.913349607541713</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85971381392461</v>
+        <v>28.88089783653445</v>
       </c>
       <c r="C20">
-        <v>17.61932335818686</v>
+        <v>18.45295457270428</v>
       </c>
       <c r="D20">
-        <v>4.218844432600409</v>
+        <v>4.456333628395377</v>
       </c>
       <c r="E20">
-        <v>6.616450493250003</v>
+        <v>6.496837523080605</v>
       </c>
       <c r="F20">
-        <v>29.08766229618128</v>
+        <v>26.93066682866515</v>
       </c>
       <c r="G20">
-        <v>38.46462209382251</v>
+        <v>34.8371845088841</v>
       </c>
       <c r="I20">
-        <v>2.542617393886806</v>
+        <v>2.545421555477179</v>
       </c>
       <c r="J20">
-        <v>12.00485946295794</v>
+        <v>11.43716888709762</v>
       </c>
       <c r="K20">
-        <v>17.63321666948238</v>
+        <v>15.97846527952622</v>
       </c>
       <c r="L20">
-        <v>5.516252549539542</v>
+        <v>12.8636073498249</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.90690525097272</v>
       </c>
       <c r="N20">
-        <v>8.72554806347423</v>
+        <v>5.413913100618744</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.014026954032687</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.64346706469273</v>
+        <v>30.64499993891323</v>
       </c>
       <c r="C21">
-        <v>18.67441519005564</v>
+        <v>19.42626309368739</v>
       </c>
       <c r="D21">
-        <v>4.306227868199946</v>
+        <v>4.668705879428868</v>
       </c>
       <c r="E21">
-        <v>6.589524768675058</v>
+        <v>6.488843441085221</v>
       </c>
       <c r="F21">
-        <v>29.86150177921569</v>
+        <v>26.949242994944</v>
       </c>
       <c r="G21">
-        <v>39.83632165191114</v>
+        <v>37.19436380633753</v>
       </c>
       <c r="I21">
-        <v>2.800846148138747</v>
+        <v>2.811746452897832</v>
       </c>
       <c r="J21">
-        <v>12.12648441577221</v>
+        <v>10.46036040994732</v>
       </c>
       <c r="K21">
-        <v>17.61417529712278</v>
+        <v>15.51090818463912</v>
       </c>
       <c r="L21">
-        <v>5.46015858291821</v>
+        <v>12.43921127756618</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.73318190829577</v>
       </c>
       <c r="N21">
-        <v>9.034113424960378</v>
+        <v>5.357806947347163</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.343370966847509</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.76297079355349</v>
+        <v>31.74870789939998</v>
       </c>
       <c r="C22">
-        <v>19.31353191623997</v>
+        <v>20.00538268620099</v>
       </c>
       <c r="D22">
-        <v>4.357926992063768</v>
+        <v>4.809758259812237</v>
       </c>
       <c r="E22">
-        <v>6.575177151699751</v>
+        <v>6.489811054237096</v>
       </c>
       <c r="F22">
-        <v>30.43726023441751</v>
+        <v>26.9944698764924</v>
       </c>
       <c r="G22">
-        <v>40.84225198362781</v>
+        <v>38.91659127611234</v>
       </c>
       <c r="I22">
-        <v>3.008943231454377</v>
+        <v>2.978624878221914</v>
       </c>
       <c r="J22">
-        <v>12.23425861008549</v>
+        <v>9.814983227683895</v>
       </c>
       <c r="K22">
-        <v>17.65876672397322</v>
+        <v>15.22850430546296</v>
       </c>
       <c r="L22">
-        <v>5.425330260713551</v>
+        <v>12.17977538853215</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.65355168914591</v>
       </c>
       <c r="N22">
-        <v>9.227636729724605</v>
+        <v>5.322469318693385</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.549610102918102</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.17044730765478</v>
+        <v>31.16519833194091</v>
       </c>
       <c r="C23">
-        <v>18.94849634551992</v>
+        <v>19.69372305942687</v>
       </c>
       <c r="D23">
-        <v>4.324566145821889</v>
+        <v>4.716398146699976</v>
       </c>
       <c r="E23">
-        <v>6.584336053572374</v>
+        <v>6.48739303416314</v>
       </c>
       <c r="F23">
-        <v>30.18146874726401</v>
+        <v>27.07907309350829</v>
       </c>
       <c r="G23">
-        <v>40.39490226610582</v>
+        <v>37.93257446076333</v>
       </c>
       <c r="I23">
-        <v>2.893863507877742</v>
+        <v>2.885233901659374</v>
       </c>
       <c r="J23">
-        <v>12.19488444870461</v>
+        <v>10.28126571349355</v>
       </c>
       <c r="K23">
-        <v>17.67366540829293</v>
+        <v>15.44577271446181</v>
       </c>
       <c r="L23">
-        <v>5.445239606871628</v>
+        <v>12.36271209199945</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.75109629229209</v>
       </c>
       <c r="N23">
-        <v>9.117511213865075</v>
+        <v>5.342625596183196</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.433864416195069</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.83073591797598</v>
+        <v>28.85195421890722</v>
       </c>
       <c r="C24">
-        <v>17.55908954572102</v>
+        <v>18.39485005359746</v>
       </c>
       <c r="D24">
-        <v>4.208396135775743</v>
+        <v>4.445017779580226</v>
       </c>
       <c r="E24">
-        <v>6.619449443114693</v>
+        <v>6.499381200774687</v>
       </c>
       <c r="F24">
-        <v>29.15897216963451</v>
+        <v>27.00208195891427</v>
       </c>
       <c r="G24">
-        <v>38.58769328998255</v>
+        <v>34.94238065954139</v>
       </c>
       <c r="I24">
-        <v>2.527095147691369</v>
+        <v>2.529934379891332</v>
       </c>
       <c r="J24">
-        <v>12.03251320488161</v>
+        <v>11.47086898875029</v>
       </c>
       <c r="K24">
-        <v>17.69553482649908</v>
+        <v>16.0361106106764</v>
       </c>
       <c r="L24">
-        <v>5.519302614184637</v>
+        <v>12.90620576917709</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.95069340492443</v>
       </c>
       <c r="N24">
-        <v>8.709371909163396</v>
+        <v>5.416275061667038</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.998374226036491</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.1775383970999</v>
+        <v>26.17867377338569</v>
       </c>
       <c r="C25">
-        <v>15.95446871724977</v>
+        <v>16.64957394833021</v>
       </c>
       <c r="D25">
-        <v>4.085260543998396</v>
+        <v>4.287991430940036</v>
       </c>
       <c r="E25">
-        <v>6.663767264239212</v>
+        <v>6.551027086262988</v>
       </c>
       <c r="F25">
-        <v>28.1239649851679</v>
+        <v>26.29277489034696</v>
       </c>
       <c r="G25">
-        <v>36.71292271711221</v>
+        <v>33.43012118185904</v>
       </c>
       <c r="I25">
-        <v>3.024307942523087</v>
+        <v>2.891786949785586</v>
       </c>
       <c r="J25">
-        <v>11.89257717880001</v>
+        <v>11.46194478679091</v>
       </c>
       <c r="K25">
-        <v>17.77922793138038</v>
+        <v>16.33794085495532</v>
       </c>
       <c r="L25">
-        <v>5.601289475030072</v>
+        <v>13.24216031747652</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.96775996884395</v>
       </c>
       <c r="N25">
-        <v>8.265958107740166</v>
+        <v>5.492605402500434</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.517383099869454</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
